--- a/Nevasa/InformeCompleto/20250120/20250120_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20250120/20250120_informe_completo_results.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PACTO</t>
+          <t>PACTO_21012025_20012025_0.44_AHORRO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/Nevasa/InformeCompleto/20250120/20250120_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20250120/20250120_informe_completo_results.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45678</v>
+        <v>45677</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>45677</v>
